--- a/Jamica/Task Enumeration.xlsx
+++ b/Jamica/Task Enumeration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -73,13 +73,97 @@
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Design Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow Diagram </t>
+  </si>
+  <si>
+    <t>Learning*</t>
+  </si>
+  <si>
+    <t>Characteristics List</t>
+  </si>
+  <si>
+    <t>Behavior Definition</t>
+  </si>
+  <si>
+    <t>Interface List</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Major Compnents BOM</t>
+  </si>
+  <si>
+    <t>HW Block Diagram</t>
+  </si>
+  <si>
+    <t>Datasheet Research</t>
+  </si>
+  <si>
+    <t>Product Architecture</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Budget </t>
+  </si>
+  <si>
+    <t>Major Signals List</t>
+  </si>
+  <si>
+    <t>Interface Pinouts</t>
+  </si>
+  <si>
+    <t>Prebuilt Eagle library Research</t>
+  </si>
+  <si>
+    <t>Eagle library build</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package </t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Eagle schematic</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Naming</t>
+  </si>
+  <si>
+    <t>Error Checking</t>
+  </si>
+  <si>
+    <t>Eagle Layout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +193,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -140,6 +231,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -553,29 +645,240 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
